--- a/Testcase/Version 1.0/Duc-ThemSanPham.xlsx
+++ b/Testcase/Version 1.0/Duc-ThemSanPham.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HKII_nam_3\CNPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Refferences\HK2_2020_2021\Software_Engineering\FinalProject\AppTangQua\Testcase\Version 1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEE50B6-D338-40F1-B713-291CD784BC34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TC_007" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>TC_002</t>
-  </si>
-  <si>
     <t>Test Case Description</t>
   </si>
   <si>
@@ -150,12 +148,15 @@
   </si>
   <si>
     <t>Object (Product) can be storage on firebase</t>
+  </si>
+  <si>
+    <t>TC_007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
@@ -300,106 +301,106 @@
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Note 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Note 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -676,386 +677,392 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="A1:K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="4" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B4" s="27"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="D6" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="29">
+        <v>44322</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="31"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>3</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="4">
         <v>5</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4" t="s">
+      <c r="G13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="4">
+        <v>6</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F15" s="4">
+        <v>7</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="4">
+        <v>8</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>1</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="13"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>2</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>3</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>4</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="10"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12">
-        <v>44322</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="F8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
-        <v>1</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="F9" s="18">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
-        <v>2</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="F10" s="18">
-        <v>2</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
-        <v>3</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="F11" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
-        <v>4</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="F12" s="18">
-        <v>4</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F13" s="18">
-        <v>5</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F14" s="18">
-        <v>6</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F15" s="18">
-        <v>7</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F16" s="18">
-        <v>8</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
-        <v>1</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
-        <v>2</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
-        <v>3</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
-        <v>4</v>
-      </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="5"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="G13:K13"/>
     <mergeCell ref="G14:K14"/>
     <mergeCell ref="G15:K15"/>
@@ -1065,30 +1072,22 @@
     <mergeCell ref="D20:E21"/>
     <mergeCell ref="F20:H21"/>
     <mergeCell ref="I20:K21"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
